--- a/output1.xlsx
+++ b/output1.xlsx
@@ -75,7 +75,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +86,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -560,148 +553,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -785,37 +778,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2391,7 +2354,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
